--- a/結果.xlsx
+++ b/結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Albert_LSH" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="50">
   <si>
     <t>{"eval_loss": 0.6241901218891144, "eval_acc": 0.6838235294117647, "eval_f1": 0.8122270742358079, "eval_acc_and_f1": 0.7480253018237863, "epoch": 6.0, "step": 690} 05/20/2020 17:11:07 - INFO - __main__ - ***** Eval results mrpc *****</t>
   </si>
@@ -167,24 +167,6 @@
   <si>
     <t>n_hashes</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Results: {'exact': 70.22656447401668, 'f1': 72.6323050612028, 'total': 11873, 'HasAns_exact': 56.190958164642375, 'HasAns_f1': 61.00933839265511, 'HasAns_total': 5928, 'NoAns_exact': 84.22203532380152, 'NoAns_f1': 84.22203532380152, 'NoAns_total': 5945, 'best_exact': 70.23498694516971, 'best_exact_thresh': 0.0, 'best_f1': 72.64072753235587, 'best_f1_thresh': 0.0}</t>
-  </si>
-  <si>
-    <t>SQUAD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Results: {'exact': 70.00946073793756, 'f1': 78.45175323350712, 'total': 10570, 'HasAns_exact': 70.00946073793756, 'HasAns_f1': 78.45175323350712, 'HasAns_total': 10570, 'best_exact': 70.00946073793756, 'best_exact_thresh': 0.0, 'best_f1': 78.45175323350712, 'best_f1_thresh': 0.0}</t>
   </si>
   <si>
     <t>SQUADV2</t>
@@ -282,14 +264,14 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -593,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -745,13 +727,13 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -849,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -859,14 +841,14 @@
       <c r="B27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -875,22 +857,22 @@
       <c r="B28">
         <v>16</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -909,23 +891,23 @@
       <c r="B30" t="b">
         <v>1</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="E30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>54</v>
+      <c r="H30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -943,10 +925,10 @@
       <c r="B32">
         <v>12</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="7"/>
+      <c r="D32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -973,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -983,14 +965,14 @@
       <c r="B39" t="b">
         <v>1</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -999,22 +981,22 @@
       <c r="B40">
         <v>16</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="8" t="s">
+      <c r="G40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1051,19 +1033,19 @@
       <c r="B42" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -1126,7 +1108,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H10"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1138,19 +1120,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1167,13 +1149,13 @@
       <c r="B3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1276,13 +1258,13 @@
       <c r="B14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1371,19 +1353,19 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1400,13 +1382,13 @@
       <c r="B26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1509,13 +1491,13 @@
       <c r="B39" t="b">
         <v>1</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1619,46 +1601,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A7:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I27"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1666,40 +1622,40 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="4"/>
@@ -1709,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>70.226564474016598</v>
@@ -1735,25 +1691,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1789,10 +1745,10 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1819,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1827,40 +1783,40 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1869,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1">
         <v>70.009460737937502</v>
@@ -1895,21 +1851,21 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1971,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1998,26 +1954,26 @@
       <c r="B2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="J2" t="s">
         <v>38</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2182,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2192,13 +2148,13 @@
       <c r="B14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2280,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2290,13 +2246,13 @@
       <c r="B26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">

--- a/結果.xlsx
+++ b/結果.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Albert_LSH" sheetId="1" r:id="rId1"/>
-    <sheet name="Bert_LSH" sheetId="2" r:id="rId2"/>
-    <sheet name="Albert" sheetId="3" r:id="rId3"/>
+    <sheet name="Albert" sheetId="3" r:id="rId1"/>
+    <sheet name="Albert_LSH" sheetId="1" r:id="rId2"/>
+    <sheet name="Bert_LSH" sheetId="2" r:id="rId3"/>
     <sheet name="Albert_LSH_selfattention" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="52">
   <si>
     <t>{"eval_loss": 0.6241901218891144, "eval_acc": 0.6838235294117647, "eval_f1": 0.8122270742358079, "eval_acc_and_f1": 0.7480253018237863, "epoch": 6.0, "step": 690} 05/20/2020 17:11:07 - INFO - __main__ - ***** Eval results mrpc *****</t>
   </si>
@@ -198,6 +198,13 @@
   <si>
     <t>best_f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SST-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">eval_acc </t>
   </si>
 </sst>
 </file>
@@ -573,10 +580,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1">
+        <v>70.226564474016598</v>
+      </c>
+      <c r="E10" s="1">
+        <v>72.6323050612028</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11873</v>
+      </c>
+      <c r="G10" s="1">
+        <v>56.190958164642304</v>
+      </c>
+      <c r="H10" s="1">
+        <v>61.009338392655103</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>128</v>
+      </c>
+      <c r="D12" s="1">
+        <v>84.222035323801506</v>
+      </c>
+      <c r="E12" s="1">
+        <v>84.222035323801506</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5945</v>
+      </c>
+      <c r="G12" s="1">
+        <v>70.234986945169695</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>72.640727532355797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1">
+        <v>70.009460737937502</v>
+      </c>
+      <c r="E22" s="1">
+        <v>78.451753233507105</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10570</v>
+      </c>
+      <c r="G22" s="1">
+        <v>70.009460737937502</v>
+      </c>
+      <c r="H22" s="1">
+        <v>78.451753233507105</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>128</v>
+      </c>
+      <c r="D24" s="1">
+        <v>70.009460737937502</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>78.451753233507105</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D20:I20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1103,12 +1434,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1599,355 +1930,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:J27"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1">
-        <v>70.226564474016598</v>
-      </c>
-      <c r="E10" s="1">
-        <v>72.6323050612028</v>
-      </c>
-      <c r="F10" s="1">
-        <v>11873</v>
-      </c>
-      <c r="G10" s="1">
-        <v>56.190958164642304</v>
-      </c>
-      <c r="H10" s="1">
-        <v>61.009338392655103</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>128</v>
-      </c>
-      <c r="D12" s="1">
-        <v>84.222035323801506</v>
-      </c>
-      <c r="E12" s="1">
-        <v>84.222035323801506</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5945</v>
-      </c>
-      <c r="G12" s="1">
-        <v>70.234986945169695</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>72.640727532355797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1">
-        <v>70.009460737937502</v>
-      </c>
-      <c r="E22" s="1">
-        <v>78.451753233507105</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10570</v>
-      </c>
-      <c r="G22" s="1">
-        <v>70.009460737937502</v>
-      </c>
-      <c r="H22" s="1">
-        <v>78.451753233507105</v>
-      </c>
-      <c r="I22" s="1">
-        <v>10570</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>128</v>
-      </c>
-      <c r="D24" s="1">
-        <v>70.009460737937502</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>78.451753233507105</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D20:I20"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1961,21 +1968,21 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="J2" t="s">
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1997,29 +2004,23 @@
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="S3" t="s">
         <v>22</v>
       </c>
-      <c r="K3">
+      <c r="T3">
         <v>8</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="V3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -2041,99 +2042,92 @@
       <c r="H4">
         <v>345</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4">
+      <c r="T4">
         <v>32</v>
       </c>
-      <c r="M4" s="1">
-        <v>0.62395337633058101</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.68382352941176405</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.81222707423580698</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.74802530182378602</v>
-      </c>
-      <c r="Q4">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V4" s="1">
+        <v>0.69636470298154596</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.50917431192660501</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6">
         <v>64</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K6">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <v>32</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="2">
+      <c r="T8" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="T9">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2141,7 +2135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2156,7 +2150,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +2173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -2331,10 +2325,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="V2:Z2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D26:H26"/>
-    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
